--- a/data/trans_orig/CALVIDA_SF12_MCB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Edad-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,48 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -105,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -501,450 +461,490 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>16/24</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>16-24 años</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>46,3</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>44,9</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>45,63</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>45.86422345872779</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>44.53375277871393</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>45.22449272184234</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>45,07; 47,14</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>43,65; 45,92</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>44,72; 46,25</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>44.47199163285232</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>43.19365492502787</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>44.39658977526761</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>25/34</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>46.75727800190497</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>45.68275767882268</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>46.0645046098175</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>25-34 años</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>46,11</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>44,96</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>45,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>45,16; 46,82</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>44,03; 45,79</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>44,85; 46,08</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>45.92824868312719</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>44.42294384257368</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>45.14370604024617</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35/44</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>44.69577027709851</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>43.34200087511587</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>44.36990693026654</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>46.70140056266457</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>45.26574870769348</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>45.76076448729271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>35-44 años</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>46,2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>46,67</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>46,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>45,49; 46,86</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>46,14; 47,23</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>45,94; 46,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>45/54</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>46.05854893355109</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>46.63810905258766</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>46.34593582200763</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>45.20974456051123</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>45.97286842247453</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>45.75833016584984</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>46.67959654884181</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>47.19655114390711</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>46.76859804963979</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>45-54 años</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>45,98</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>45,98</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>45,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>45,34; 46,57</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>45,48; 46,45</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>45,58; 46,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55/64</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>45.71178165866082</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>45.90751587784698</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>45.8126362520421</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>44.99584430787451</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>45.33953535870636</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>45.34720679431528</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>46.40976730702766</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>46.4356059044447</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>46.17981963026652</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>55-64 años</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>46,19</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>45,22</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>45,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>45,42; 46,75</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>44,46; 45,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>45,22; 46,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>46.16102225369735</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>45.28005967204857</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>45.72690449346648</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>45.44856636043971</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>44.6018955631199</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>45.17477043150841</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>46.88597211423141</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>45.92361453235681</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>46.17593820788198</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>65-74 años</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>45,75</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>45,05</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>45,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>44,95; 46,46</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>44,28; 45,76</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>44,8; 45,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>45.74857616361417</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>44.83521086944518</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>45.26004493717912</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>44.82220525614506</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>44.07404641030992</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>44.66712408039779</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>46.4667184842332</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>45.52835506814259</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>45.79513160574897</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>75 y más años</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>46,17</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>43,94</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>44,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>45,15; 47,0</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>43,03; 44,85</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>44,12; 45,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>46.44932571744295</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>43.90126217912378</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>44.89756365189643</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>45.45112845189085</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>42.95620879254804</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>44.16424225598568</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>47.37119416640796</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>44.87859665379875</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>45.63105744109607</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>46,1</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>45,38</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>45,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>45,82; 46,38</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>45,11; 45,66</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>45,51; 45,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C25" s="4" t="n">
+        <v>45.961937261998</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>45.23376834597268</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>45.58575923900511</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>45.64835224841076</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>44.93700041303297</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>45.35940774550455</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>46.24084369983596</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>45.52989215716599</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>45.79154834271195</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -952,15 +952,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
